--- a/Data_files/2024_04_14_screen_results_2.xlsx
+++ b/Data_files/2024_04_14_screen_results_2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Documents/Kai/Visual Studio/siRNA Drug Screening Code Formatted for Paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Documents/Kai/Visual Studio/siRNA Drug Screening Code Formatted for Paper/GitHub/Ionizable_drug_siRNA_complexation/Data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56310613-CEC2-3240-AFF8-C8A1EDEBC359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04000B7-2DCF-8E49-963B-C5820EEF20E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20040" xr2:uid="{37F97F8B-D39D-6B4E-80FA-58EE777D0A66}"/>
+    <workbookView xWindow="-37700" yWindow="500" windowWidth="35840" windowHeight="20040" xr2:uid="{37F97F8B-D39D-6B4E-80FA-58EE777D0A66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -149,11 +149,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -493,14 +492,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF4AA78-85E8-F144-8720-5878F49D4659}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D6" sqref="A4:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -514,7 +514,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -541,10 +541,10 @@
       <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -552,7 +552,7 @@
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2">
@@ -561,16 +561,16 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>6.6262000000000001E-2</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>7.0197999999999997E-2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>1.2940430000000001</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>1.21166</v>
       </c>
       <c r="I2">
@@ -602,7 +602,7 @@
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3">
@@ -611,16 +611,16 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>7.2778999999999996E-2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>7.0752999999999996E-2</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>1.36879</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>1.3509549999999999</v>
       </c>
       <c r="I3">
@@ -647,6 +647,14 @@
         <f>ABS(G3-H3)</f>
         <v>1.7835000000000045E-2</v>
       </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
